--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/存货.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/存货.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>462.03838</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1069.87334</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91.78478</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.22426</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20.46812</v>
-      </c>
-      <c r="G2" t="n">
-        <v>555.90862</v>
-      </c>
-      <c r="H2" t="n">
-        <v>121.65704</v>
-      </c>
-      <c r="I2" t="n">
-        <v>219.83855</v>
-      </c>
-      <c r="J2" t="n">
-        <v>53.20459</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8849.748740000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>53.92731</v>
-      </c>
-      <c r="M2" t="n">
-        <v>8.033860000000001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>13.41566</v>
-      </c>
-      <c r="O2" t="n">
-        <v>574.4734</v>
-      </c>
-      <c r="P2" t="n">
-        <v>304.12687</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>41.28145</v>
-      </c>
-      <c r="R2" t="n">
-        <v>46.03307</v>
-      </c>
-      <c r="S2" t="n">
-        <v>29.51307</v>
-      </c>
-      <c r="T2" t="n">
-        <v>36.14432</v>
-      </c>
-      <c r="U2" t="n">
-        <v>83.77030000000001</v>
-      </c>
-      <c r="V2" t="n">
-        <v>337.07373</v>
-      </c>
-      <c r="W2" t="n">
-        <v>20.10001</v>
-      </c>
-      <c r="X2" t="n">
-        <v>228.21535</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>197.8367</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>713.71888</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>325.99055</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29.74409</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>452.43422</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>102.71037</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>494.57376</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>14.58374</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>122.032</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>106.72516</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>312.32801</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>37.6887</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>75.672</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>210.18919</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>282.12131</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>875.59641</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17.29422</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>428.9541</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1161.51981</v>
-      </c>
-      <c r="D3" t="n">
-        <v>93.84668000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0663</v>
-      </c>
-      <c r="F3" t="n">
-        <v>19.19285</v>
-      </c>
-      <c r="G3" t="n">
-        <v>532.6299299999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>85.81017</v>
-      </c>
-      <c r="I3" t="n">
-        <v>230.10685</v>
-      </c>
-      <c r="J3" t="n">
-        <v>55.14228</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9013.42107</v>
-      </c>
-      <c r="L3" t="n">
-        <v>57.88484</v>
-      </c>
-      <c r="M3" t="n">
-        <v>8.981059999999999</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13.15505</v>
-      </c>
-      <c r="O3" t="n">
-        <v>574.72783</v>
-      </c>
-      <c r="P3" t="n">
-        <v>328.97458</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>38.42266</v>
-      </c>
-      <c r="R3" t="n">
-        <v>40.44732</v>
-      </c>
-      <c r="S3" t="n">
-        <v>30.98564</v>
-      </c>
-      <c r="T3" t="n">
-        <v>31.99083</v>
-      </c>
-      <c r="U3" t="n">
-        <v>80.79584</v>
-      </c>
-      <c r="V3" t="n">
-        <v>673.06565</v>
-      </c>
-      <c r="W3" t="n">
-        <v>18.9205</v>
-      </c>
-      <c r="X3" t="n">
-        <v>225.84966</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>190.98949</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>634.9310400000001</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>334.31246</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>30.41015</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>394.90522</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>96.85514999999999</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>447.30994</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>15.68306</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>121.17933</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>107.41187</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>294.10899</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>36.05033</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>73.64776999999999</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>184.48154</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>287.72946</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>913.94611</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17.41851</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>432.6086</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1236.86866</v>
-      </c>
-      <c r="D4" t="n">
-        <v>87.91155999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.06781</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16.76077</v>
-      </c>
-      <c r="G4" t="n">
-        <v>514.28513</v>
-      </c>
-      <c r="H4" t="n">
-        <v>78.1233</v>
-      </c>
-      <c r="I4" t="n">
-        <v>219.76343</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50.42697</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8774.40387</v>
-      </c>
-      <c r="L4" t="n">
-        <v>51.49777</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.29971</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12.42088</v>
-      </c>
-      <c r="O4" t="n">
-        <v>590.23268</v>
-      </c>
-      <c r="P4" t="n">
-        <v>326.09034</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>32.82059</v>
-      </c>
-      <c r="R4" t="n">
-        <v>31.07029</v>
-      </c>
-      <c r="S4" t="n">
-        <v>24.40095</v>
-      </c>
-      <c r="T4" t="n">
-        <v>31.2325</v>
-      </c>
-      <c r="U4" t="n">
-        <v>72.63751000000001</v>
-      </c>
-      <c r="V4" t="n">
-        <v>729.84037</v>
-      </c>
-      <c r="W4" t="n">
-        <v>21.50606</v>
-      </c>
-      <c r="X4" t="n">
-        <v>238.01217</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>198.0386</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>550.17529</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>316.11666</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21.8387</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>396.95036</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>106.66767</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>384.4219</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>15.34145</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>117.79329</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>101.00151</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>285.62935</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>37.09679</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>66.58765</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>166.4899</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>271.82886</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>811.47416</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>18.56199</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
